--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996349.833477597</v>
+        <v>2992045.493667728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541998.006088113</v>
+        <v>8541998.006088112</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>42.8761750160599</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>98.25079438029367</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>2.095007082091088</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>227.2008580151025</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9725659584294</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>73.4633041892977</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>63.00994649521922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090590434</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>230.0819389602236</v>
       </c>
       <c r="G8" t="n">
         <v>411.5491597882495</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465068</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.12614369696857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>143.2927632288443</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115252</v>
+        <v>20.2497997611523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.032805209907</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.791121669412381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.6785596856874</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625321</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.81917536083746</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>19.86507844888341</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.52079624060555</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2646806878225</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>118.852068818655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.63412424768572</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576144</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.2893995353498</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428509</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>119.3168020713731</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515903</v>
@@ -4342,10 +4342,10 @@
         <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.2435858248425</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>355.7905565437155</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>355.7905565437155</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>312.4812888507257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>955.6122933592633</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098645</v>
+        <v>955.6122933592633</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098645</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="W3" t="n">
-        <v>906.2192216098645</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="X3" t="n">
-        <v>906.2192216098645</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="Y3" t="n">
-        <v>698.4589228449106</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>339.6957333972991</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>339.6957333972991</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>339.6957333972991</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>191.782639814906</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>191.782639814906</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>23.21327916990947</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>23.21327916990947</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>23.21327916990947</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>264.3111048323622</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>264.3111048323622</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>339.6957333972991</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.733006062639</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>153.355349495461</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>153.355349495461</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>427.3532852688019</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>427.3532852688019</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>427.3532852688019</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>635.2047854743347</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>427.3532852688019</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>427.3532852688019</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4165812394762</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>607.7320930335893</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>341.3544364664114</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>341.3544364664114</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>341.3544364664114</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3337701408066</v>
+        <v>1057.58917477166</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3337701408066</v>
+        <v>1057.58917477166</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3337701408066</v>
+        <v>699.3234761649094</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>699.3234761649094</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511991</v>
+        <v>466.9174772151886</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428663</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428663</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467162</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607403</v>
+        <v>442.175743760743</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045897</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995222</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209578</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.35653055019</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661155</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762127</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762127</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2425.601587785391</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="V8" t="n">
-        <v>2094.53870044182</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="W8" t="n">
-        <v>2094.53870044182</v>
+        <v>2207.794105072673</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.07294218074</v>
+        <v>1834.328346811593</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.933610204928</v>
+        <v>1444.189014835782</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010686</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199416</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586904</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532349</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637182</v>
+        <v>238.3188829507238</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148167</v>
+        <v>613.7598241331841</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482972</v>
+        <v>908.2958075666659</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225974</v>
+        <v>1271.362276040968</v>
       </c>
       <c r="N9" t="n">
-        <v>1589.427489407434</v>
+        <v>1658.446678513537</v>
       </c>
       <c r="O9" t="n">
-        <v>1921.314299394822</v>
+        <v>1990.333488500927</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789029</v>
+        <v>2237.368846930552</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251689</v>
+        <v>2424.826280251703</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685338</v>
+        <v>2230.816477685352</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751568</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519825</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791623</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586091</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821137</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.1390772876027</v>
+        <v>220.1474381347627</v>
       </c>
       <c r="C10" t="n">
-        <v>307.2028943596958</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="D10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="E10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380104</v>
+        <v>76.63468308380169</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368906</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904016</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699193</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173598</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.147591173598</v>
+        <v>1394.679691249397</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.147591173598</v>
+        <v>1139.99520304351</v>
       </c>
       <c r="W10" t="n">
-        <v>926.7304211366375</v>
+        <v>850.5780330065498</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7408702386201</v>
+        <v>622.5884821085325</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.94829109509</v>
+        <v>401.7959029650024</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,10 +5369,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5770,34 +5770,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768879</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768879</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>414.4022433768879</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6083,7 +6083,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2985.713220456422</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2816.777037528515</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2666.660398116179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2666.660398116179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2666.660398116179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2499.464298831059</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2357.752467673257</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3167.361685286662</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.54259528685</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4634.751540034345</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.751540034345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4415.150075057287</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4126.074848401485</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3871.390360195598</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3581.973190158637</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3353.98363926062</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.19106011709</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6706,10 +6706,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6718,7 +6718,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647306</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>680.4481746984125</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860768</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235167</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579365</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373478</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336517</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.9418134385</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206038</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.823046892697</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803613</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000581</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2436.221543936135</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.36670959104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.36670959104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.18982469239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508433</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.815803413395</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>555.815803413395</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>555.815803413395</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>407.902709831002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138439</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.502065570314</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,34 +7420,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400744</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121676</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121676</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121676</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121676</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648822</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138439</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.502065570314</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458189</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538065</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>279.7936403682662</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348535</v>
+        <v>20.98618304348496</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>69.70496293143138</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.40075786968212</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85445046951614</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.39475227997271</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.74112246243583</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.54258064658731</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392193863</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580764</v>
+        <v>390680.0076580802</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606955</v>
+        <v>507909.2320606921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.454111184259467e-10</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101706</v>
+        <v>95270.23779101791</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716752</v>
+        <v>135650.8557716742</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,31 +26432,31 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744253</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744251</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744408</v>
+        <v>8727.256391744315</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744409</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744408</v>
+        <v>8727.256391744366</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744409</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567879</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292898.8464532075</v>
+        <v>-292898.8464532077</v>
       </c>
       <c r="C6" t="n">
-        <v>387189.134137986</v>
+        <v>387189.1341379856</v>
       </c>
       <c r="D6" t="n">
-        <v>78651.77337921034</v>
+        <v>78651.77337920715</v>
       </c>
       <c r="E6" t="n">
-        <v>68315.59146015863</v>
+        <v>67968.21220580526</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.823520854</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.8235208539</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="J6" t="n">
-        <v>507225.6691017398</v>
+        <v>506878.289847383</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="L6" t="n">
-        <v>480954.5857298368</v>
+        <v>480607.2064754792</v>
       </c>
       <c r="M6" t="n">
-        <v>443506.8478253844</v>
+        <v>443159.4685710281</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208539</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208539</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664972</v>
       </c>
     </row>
   </sheetData>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627809</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856934</v>
+        <v>640.1406900856969</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933025</v>
+        <v>319.6474457933056</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788929</v>
+        <v>434.2730407788899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841872</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084187</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841872</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.905907729101</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>174.596860236385</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.768905439341</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>96.59019320458312</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12.97719201679101</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>59.05777248757497</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>271.5084053465149</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872806</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>178.2316789716219</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>223.2486840074583</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984467</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>176.7941067814878</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>240.9192229927171</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.776449164539599</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164525957</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.0408585125249</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>47.54863008461703</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30228,19 +30228,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="U38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885548</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157552</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763179</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354916</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359925</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525062</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307879</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983008</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754212</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864745</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617155</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752555</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023119</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046249</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708726</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942735</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650313</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313374</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655044</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087198</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559152</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091011</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430313</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234241</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127545</v>
+        <v>188.9976037816849</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>379.233273921677</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772529</v>
+        <v>297.5110943772543</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396972</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856934</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074628</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>529.3243054486941</v>
+        <v>249.5306650804291</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603481</v>
+        <v>326.458498396198</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873288</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093279</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641525</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357661</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2992045.493667728</v>
+        <v>2993806.023970513</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>123.7911484401894</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C2" t="n">
-        <v>72.36698404190653</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -712,7 +712,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>98.25079438029367</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.979274525846</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.095007082091088</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>223.1749699436572</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.2254363169657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>48.2027943444968</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>284.8637845980398</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.0819389602236</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115252</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256348</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.032805209907</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>179.087901374873</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.6785596856874</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>86.80636739625321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814911</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892487</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>127.5379405516748</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.2646806878225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576144</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.5380597272477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>97.0262957429552</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4820441686398</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4845493424988</v>
+        <v>536.5497397250152</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,19 +4412,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>503.6022960313622</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>955.6122933592633</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>955.6122933592633</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>720.4601851275206</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W3" t="n">
-        <v>720.4601851275206</v>
+        <v>691.074259448092</v>
       </c>
       <c r="X3" t="n">
-        <v>720.4601851275206</v>
+        <v>691.074259448092</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.6998863625668</v>
+        <v>536.5497397250152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.6957333972991</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="C4" t="n">
-        <v>339.6957333972991</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="D4" t="n">
-        <v>339.6957333972991</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="E4" t="n">
-        <v>191.782639814906</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>191.782639814906</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>23.21327916990947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>23.21327916990947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>23.21327916990947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388466</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408293</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6957333972991</v>
+        <v>337.5795646275102</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>690.233069932778</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>690.233069932778</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>419.733006062639</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="X5" t="n">
-        <v>153.355349495461</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="Y5" t="n">
-        <v>153.355349495461</v>
+        <v>956.6107264999559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.58917477166</v>
+        <v>726.5262874280761</v>
       </c>
       <c r="C8" t="n">
-        <v>1057.58917477166</v>
+        <v>357.5637704876644</v>
       </c>
       <c r="D8" t="n">
-        <v>699.3234761649094</v>
+        <v>69.82257392398775</v>
       </c>
       <c r="E8" t="n">
-        <v>699.3234761649094</v>
+        <v>69.82257392398775</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151886</v>
+        <v>62.87707317478427</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467161</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607402</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904594</v>
+        <v>795.1862829045895</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209578</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940589</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.35653055019</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661155</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342787</v>
+        <v>2229.499872999203</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072673</v>
+        <v>1876.731217729089</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811593</v>
+        <v>1503.26545946801</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.189014835782</v>
+        <v>1113.126127492198</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507238</v>
+        <v>238.3188829507229</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331841</v>
+        <v>684.7364639442743</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666659</v>
+        <v>979.2724473777548</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040968</v>
+        <v>1342.338915852055</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513537</v>
+        <v>1729.423318324623</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500927</v>
+        <v>2061.310128312011</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930552</v>
+        <v>2308.345486741635</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.1474381347627</v>
+        <v>535.024510492982</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685575</v>
+        <v>366.0883275650751</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685575</v>
+        <v>366.0883275650751</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685575</v>
+        <v>366.0883275650751</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685575</v>
+        <v>219.1983800671648</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380169</v>
+        <v>76.63468308380105</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368907</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904017</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1454.87227540173</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1454.87227540173</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.679691249397</v>
+        <v>1454.87227540173</v>
       </c>
       <c r="V10" t="n">
-        <v>1139.99520304351</v>
+        <v>1454.87227540173</v>
       </c>
       <c r="W10" t="n">
-        <v>850.5780330065498</v>
+        <v>1165.455105364769</v>
       </c>
       <c r="X10" t="n">
-        <v>622.5884821085325</v>
+        <v>937.4655544667519</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.7959029650024</v>
+        <v>716.6729753232217</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2259.395357538351</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,19 +6229,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6730,7 +6730,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>256.118667722925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.13373767211394</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458189</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.3837121690856</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348496</v>
+        <v>20.98618304348534</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>31.71340154579718</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>53.4883454499698</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>9.000252501566337</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>120.3791545843331</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580802</v>
+        <v>390680.0076580767</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606921</v>
+        <v>507909.2320606958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.454111184259467e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101791</v>
+        <v>95270.23779101711</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954697</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716742</v>
+        <v>135650.8557716752</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.25639174418</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744244</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744253</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744251</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744315</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744313</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.8675756788</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292898.8464532077</v>
+        <v>-292898.8464532075</v>
       </c>
       <c r="C6" t="n">
-        <v>387189.1341379856</v>
+        <v>387189.1341379855</v>
       </c>
       <c r="D6" t="n">
-        <v>78651.77337920715</v>
+        <v>78651.77337920992</v>
       </c>
       <c r="E6" t="n">
-        <v>67968.21220580526</v>
+        <v>68280.85353472258</v>
       </c>
       <c r="F6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="G6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="H6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954182</v>
       </c>
       <c r="I6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="J6" t="n">
-        <v>506878.289847383</v>
+        <v>507190.9311763044</v>
       </c>
       <c r="K6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="L6" t="n">
-        <v>480607.2064754792</v>
+        <v>480919.8478044014</v>
       </c>
       <c r="M6" t="n">
-        <v>443159.4685710281</v>
+        <v>443472.1098999488</v>
       </c>
       <c r="N6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="O6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954182</v>
       </c>
       <c r="P6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954185</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.702459562781</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856969</v>
+        <v>640.1406900856936</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.6474457933027</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841874</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841874</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841874</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>258.9426932232912</v>
       </c>
       <c r="C2" t="n">
-        <v>292.905907729101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>96.59019320458312</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>52.70342125145837</v>
       </c>
     </row>
     <row r="4">
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>12.97719201679101</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27602,10 +27602,10 @@
         <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2.534685445379949</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.5084053465149</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>251.9786231464051</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>131.6291858374405</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>69.81925702264311</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.7941067814878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465065</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164539144</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164525957</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>15.58594887551155</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>47.54863008461703</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-4.571293608196788e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,22 +28614,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,10 +30273,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885549</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972526</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.469162776318</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354917</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359926</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525063</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.435619230788</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983009</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542121</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436925</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026256</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079421</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502161</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571271</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617156</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152203</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519073</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947581</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463696</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366391</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415869</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772514</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490118</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462344</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939799</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307398</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658771</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942736</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650315</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904285</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181795</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333353</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705663</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313375</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655045</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087199</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559154</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091013</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430314</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797626</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816849</v>
+        <v>188.9976037816843</v>
       </c>
       <c r="K9" t="n">
-        <v>379.233273921677</v>
+        <v>450.9268494884357</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>297.511094377253</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396972</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.994345931887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074629</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>249.5306650804279</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.458498396198</v>
+        <v>254.7649228294337</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.6802301787329</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.788131425463</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186646</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684103</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
